--- a/data/responses treatment.xlsx
+++ b/data/responses treatment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\GitHub\broken-morals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A766888E-5260-41B1-A561-A0C0628A5B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C75C9-39F4-47F6-A98F-6AC3EA44C0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_1_f_fb" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,20 @@
     <sheet name="t_4_c_ut" sheetId="4" r:id="rId4"/>
     <sheet name="t_5_ben" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1451,7 +1463,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
@@ -1636,9 +1648,9 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
